--- a/dataanalysis/data/predictions/1600/09151506_1507.xlsx
+++ b/dataanalysis/data/predictions/1600/09151506_1507.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="136">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-09-15</t>
   </si>
   <si>
@@ -419,12 +422,6 @@
   </si>
   <si>
     <t>否</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
 </sst>
 </file>
@@ -782,13 +779,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH62"/>
+  <dimension ref="A1:AI62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -891,19 +888,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300004</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>20.02</v>
@@ -921,7 +921,7 @@
         <v>145715.65</v>
       </c>
       <c r="J2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -962,8 +962,23 @@
       <c r="W2">
         <v>3.12</v>
       </c>
+      <c r="X2">
+        <v>0.6</v>
+      </c>
+      <c r="Y2">
+        <v>15.8</v>
+      </c>
+      <c r="Z2">
+        <v>4.57</v>
+      </c>
       <c r="AC2" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>1</v>
@@ -971,22 +986,25 @@
       <c r="AG2">
         <v>8.597016334533691</v>
       </c>
-      <c r="AH2" t="s">
-        <v>135</v>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300014</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>0.15</v>
@@ -1004,7 +1022,7 @@
         <v>1034121.73</v>
       </c>
       <c r="J3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K3">
         <v>7</v>
@@ -1045,8 +1063,23 @@
       <c r="W3">
         <v>-0.29</v>
       </c>
+      <c r="X3">
+        <v>-0.19</v>
+      </c>
+      <c r="Y3">
+        <v>74.92</v>
+      </c>
+      <c r="Z3">
+        <v>1.35</v>
+      </c>
       <c r="AC3" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1054,22 +1087,25 @@
       <c r="AG3">
         <v>8.530307769775391</v>
       </c>
-      <c r="AH3" t="s">
-        <v>136</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300043</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>20</v>
@@ -1087,7 +1123,7 @@
         <v>148547.81</v>
       </c>
       <c r="J4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K4">
         <v>4</v>
@@ -1128,8 +1164,23 @@
       <c r="W4">
         <v>4.81</v>
       </c>
+      <c r="X4">
+        <v>15.92</v>
+      </c>
+      <c r="Y4">
+        <v>7.99</v>
+      </c>
+      <c r="Z4">
+        <v>19.97</v>
+      </c>
       <c r="AC4" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
       </c>
       <c r="AF4">
         <v>1</v>
@@ -1137,22 +1188,25 @@
       <c r="AG4">
         <v>9.271498680114746</v>
       </c>
-      <c r="AH4" t="s">
-        <v>135</v>
+      <c r="AH4">
+        <v>1</v>
+      </c>
+      <c r="AI4">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300049</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>20.01</v>
@@ -1170,7 +1224,7 @@
         <v>190353.08</v>
       </c>
       <c r="J5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K5">
         <v>13</v>
@@ -1211,8 +1265,23 @@
       <c r="W5">
         <v>1.92</v>
       </c>
+      <c r="X5">
+        <v>4.38</v>
+      </c>
+      <c r="Y5">
+        <v>86.95999999999999</v>
+      </c>
+      <c r="Z5">
+        <v>5.74</v>
+      </c>
       <c r="AC5" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1220,22 +1289,25 @@
       <c r="AG5">
         <v>3.177609920501709</v>
       </c>
-      <c r="AH5" t="s">
-        <v>136</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300139</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>-5.18</v>
@@ -1253,7 +1325,7 @@
         <v>179716.86</v>
       </c>
       <c r="J6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K6">
         <v>5</v>
@@ -1294,8 +1366,23 @@
       <c r="W6">
         <v>-1.74</v>
       </c>
+      <c r="X6">
+        <v>5.61</v>
+      </c>
+      <c r="Y6">
+        <v>28.06</v>
+      </c>
+      <c r="Z6">
+        <v>6.45</v>
+      </c>
       <c r="AC6" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1303,22 +1390,25 @@
       <c r="AG6">
         <v>2.386557817459106</v>
       </c>
-      <c r="AH6" t="s">
-        <v>136</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300223</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>-1.59</v>
@@ -1336,7 +1426,7 @@
         <v>439871.39</v>
       </c>
       <c r="J7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1377,8 +1467,23 @@
       <c r="W7">
         <v>-0.8100000000000001</v>
       </c>
+      <c r="X7">
+        <v>-0.9</v>
+      </c>
+      <c r="Y7">
+        <v>84.65000000000001</v>
+      </c>
+      <c r="Z7">
+        <v>1.26</v>
+      </c>
       <c r="AC7" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1386,22 +1491,25 @@
       <c r="AG7">
         <v>-1.924509167671204</v>
       </c>
-      <c r="AH7" t="s">
-        <v>136</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300237</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>9.94</v>
@@ -1419,7 +1527,7 @@
         <v>132740.13</v>
       </c>
       <c r="J8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K8">
         <v>13</v>
@@ -1460,8 +1568,23 @@
       <c r="W8">
         <v>-0.5</v>
       </c>
+      <c r="X8">
+        <v>-6.03</v>
+      </c>
+      <c r="Y8">
+        <v>3.99</v>
+      </c>
+      <c r="Z8">
+        <v>0.25</v>
+      </c>
       <c r="AC8" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1469,22 +1592,25 @@
       <c r="AG8">
         <v>-3.967642545700073</v>
       </c>
-      <c r="AH8" t="s">
-        <v>136</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300274</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>2.05</v>
@@ -1502,7 +1628,7 @@
         <v>2136234.19</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K9">
         <v>9</v>
@@ -1543,8 +1669,23 @@
       <c r="W9">
         <v>-0.21</v>
       </c>
+      <c r="X9">
+        <v>2.66</v>
+      </c>
+      <c r="Y9">
+        <v>143.08</v>
+      </c>
+      <c r="Z9">
+        <v>4.69</v>
+      </c>
       <c r="AC9" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1552,22 +1693,25 @@
       <c r="AG9">
         <v>-5.074288845062256</v>
       </c>
-      <c r="AH9" t="s">
-        <v>136</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300290</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>16.73</v>
@@ -1585,7 +1729,7 @@
         <v>212169.16</v>
       </c>
       <c r="J10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K10">
         <v>5</v>
@@ -1626,8 +1770,23 @@
       <c r="W10">
         <v>0.33</v>
       </c>
+      <c r="X10">
+        <v>1.66</v>
+      </c>
+      <c r="Y10">
+        <v>32.29</v>
+      </c>
+      <c r="Z10">
+        <v>3.06</v>
+      </c>
       <c r="AC10" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1635,22 +1794,25 @@
       <c r="AG10">
         <v>3.63810133934021</v>
       </c>
-      <c r="AH10" t="s">
-        <v>136</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300324</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>1.54</v>
@@ -1668,7 +1830,7 @@
         <v>217998.75</v>
       </c>
       <c r="J11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1709,8 +1871,23 @@
       <c r="W11">
         <v>-0.86</v>
       </c>
+      <c r="X11">
+        <v>1.38</v>
+      </c>
+      <c r="Y11">
+        <v>7.57</v>
+      </c>
+      <c r="Z11">
+        <v>4.41</v>
+      </c>
       <c r="AC11" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1718,22 +1895,25 @@
       <c r="AG11">
         <v>5.635748863220215</v>
       </c>
-      <c r="AH11" t="s">
-        <v>136</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300331</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>9.66</v>
@@ -1751,7 +1931,7 @@
         <v>165405.48</v>
       </c>
       <c r="J12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K12">
         <v>7</v>
@@ -1792,8 +1972,23 @@
       <c r="W12">
         <v>1.11</v>
       </c>
+      <c r="X12">
+        <v>1.91</v>
+      </c>
+      <c r="Y12">
+        <v>34.56</v>
+      </c>
+      <c r="Z12">
+        <v>4.98</v>
+      </c>
       <c r="AC12" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1801,22 +1996,25 @@
       <c r="AG12">
         <v>12.19679641723633</v>
       </c>
-      <c r="AH12" t="s">
-        <v>136</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300363</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>9.210000000000001</v>
@@ -1834,7 +2032,7 @@
         <v>163314.96</v>
       </c>
       <c r="J13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1875,8 +2073,23 @@
       <c r="W13">
         <v>0.33</v>
       </c>
+      <c r="X13">
+        <v>-1.78</v>
+      </c>
+      <c r="Y13">
+        <v>28.83</v>
+      </c>
+      <c r="Z13">
+        <v>0.84</v>
+      </c>
       <c r="AC13" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>1</v>
@@ -1884,22 +2097,25 @@
       <c r="AG13">
         <v>5.103784084320068</v>
       </c>
-      <c r="AH13" t="s">
-        <v>135</v>
+      <c r="AH13">
+        <v>1</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300428</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>-1.65</v>
@@ -1917,7 +2133,7 @@
         <v>114779.2</v>
       </c>
       <c r="J14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K14">
         <v>4</v>
@@ -1958,8 +2174,23 @@
       <c r="W14">
         <v>0.05</v>
       </c>
+      <c r="X14">
+        <v>6.01</v>
+      </c>
+      <c r="Y14">
+        <v>26.5</v>
+      </c>
+      <c r="Z14">
+        <v>8.34</v>
+      </c>
       <c r="AC14" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -1967,22 +2198,25 @@
       <c r="AG14">
         <v>3.413629531860352</v>
       </c>
-      <c r="AH14" t="s">
-        <v>136</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300450</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>1.44</v>
@@ -2000,7 +2234,7 @@
         <v>1007584.46</v>
       </c>
       <c r="J15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K15">
         <v>12</v>
@@ -2041,8 +2275,23 @@
       <c r="W15">
         <v>-0.1</v>
       </c>
+      <c r="X15">
+        <v>-1.06</v>
+      </c>
+      <c r="Y15">
+        <v>55.96</v>
+      </c>
+      <c r="Z15">
+        <v>0.67</v>
+      </c>
       <c r="AC15" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2050,22 +2299,25 @@
       <c r="AG15">
         <v>9.883439064025879</v>
       </c>
-      <c r="AH15" t="s">
-        <v>136</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300457</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>3.53</v>
@@ -2083,7 +2335,7 @@
         <v>365841.66</v>
       </c>
       <c r="J16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K16">
         <v>10</v>
@@ -2124,8 +2376,23 @@
       <c r="W16">
         <v>-0.85</v>
       </c>
+      <c r="X16">
+        <v>-4.54</v>
+      </c>
+      <c r="Y16">
+        <v>34.48</v>
+      </c>
+      <c r="Z16">
+        <v>-0.29</v>
+      </c>
       <c r="AC16" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2133,22 +2400,25 @@
       <c r="AG16">
         <v>5.273986339569092</v>
       </c>
-      <c r="AH16" t="s">
-        <v>136</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300469</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>13.83</v>
@@ -2166,7 +2436,7 @@
         <v>171149.15</v>
       </c>
       <c r="J17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K17">
         <v>18</v>
@@ -2207,8 +2477,23 @@
       <c r="W17">
         <v>-0.38</v>
       </c>
+      <c r="X17">
+        <v>2.19</v>
+      </c>
+      <c r="Y17">
+        <v>80.48999999999999</v>
+      </c>
+      <c r="Z17">
+        <v>2.64</v>
+      </c>
       <c r="AC17" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2216,22 +2501,25 @@
       <c r="AG17">
         <v>-10.27506923675537</v>
       </c>
-      <c r="AH17" t="s">
-        <v>136</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300475</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>2.26</v>
@@ -2249,7 +2537,7 @@
         <v>546315.72</v>
       </c>
       <c r="J18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K18">
         <v>7</v>
@@ -2290,8 +2578,23 @@
       <c r="W18">
         <v>0.03</v>
       </c>
+      <c r="X18">
+        <v>-0.45</v>
+      </c>
+      <c r="Y18">
+        <v>77</v>
+      </c>
+      <c r="Z18">
+        <v>1.99</v>
+      </c>
       <c r="AC18" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2299,22 +2602,25 @@
       <c r="AG18">
         <v>-1.781948089599609</v>
       </c>
-      <c r="AH18" t="s">
-        <v>136</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300476</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>-2.95</v>
@@ -2332,7 +2638,7 @@
         <v>1638268.62</v>
       </c>
       <c r="J19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K19">
         <v>69</v>
@@ -2373,8 +2679,23 @@
       <c r="W19">
         <v>-0.35</v>
       </c>
+      <c r="X19">
+        <v>5.29</v>
+      </c>
+      <c r="Y19">
+        <v>355</v>
+      </c>
+      <c r="Z19">
+        <v>7.72</v>
+      </c>
       <c r="AC19" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2382,22 +2703,25 @@
       <c r="AG19">
         <v>-1.144421577453613</v>
       </c>
-      <c r="AH19" t="s">
-        <v>136</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300528</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>10.65</v>
@@ -2415,7 +2739,7 @@
         <v>228040.14</v>
       </c>
       <c r="J20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K20">
         <v>5</v>
@@ -2456,8 +2780,23 @@
       <c r="W20">
         <v>0.35</v>
       </c>
+      <c r="X20">
+        <v>-5.28</v>
+      </c>
+      <c r="Y20">
+        <v>33.6</v>
+      </c>
+      <c r="Z20">
+        <v>4.35</v>
+      </c>
       <c r="AC20" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2465,22 +2804,25 @@
       <c r="AG20">
         <v>0.7403519153594971</v>
       </c>
-      <c r="AH20" t="s">
-        <v>136</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300568</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>1.83</v>
@@ -2498,7 +2840,7 @@
         <v>220517.68</v>
       </c>
       <c r="J21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K21">
         <v>4</v>
@@ -2539,8 +2881,23 @@
       <c r="W21">
         <v>0.18</v>
       </c>
+      <c r="X21">
+        <v>-1.52</v>
+      </c>
+      <c r="Y21">
+        <v>14.48</v>
+      </c>
+      <c r="Z21">
+        <v>-0.14</v>
+      </c>
       <c r="AC21" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2548,22 +2905,25 @@
       <c r="AG21">
         <v>5.067631244659424</v>
       </c>
-      <c r="AH21" t="s">
-        <v>136</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300619</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>-5.95</v>
@@ -2581,7 +2941,7 @@
         <v>99895.05</v>
       </c>
       <c r="J22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K22">
         <v>5</v>
@@ -2622,8 +2982,23 @@
       <c r="W22">
         <v>-1.33</v>
       </c>
+      <c r="X22">
+        <v>-2.49</v>
+      </c>
+      <c r="Y22">
+        <v>35.84</v>
+      </c>
+      <c r="Z22">
+        <v>-1.02</v>
+      </c>
       <c r="AC22" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2631,22 +3006,25 @@
       <c r="AG22">
         <v>0.3728806674480438</v>
       </c>
-      <c r="AH22" t="s">
-        <v>136</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300620</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>3.87</v>
@@ -2664,7 +3042,7 @@
         <v>235899.34</v>
       </c>
       <c r="J23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K23">
         <v>4</v>
@@ -2705,8 +3083,23 @@
       <c r="W23">
         <v>0.15</v>
       </c>
+      <c r="X23">
+        <v>-1.53</v>
+      </c>
+      <c r="Y23">
+        <v>105.49</v>
+      </c>
+      <c r="Z23">
+        <v>3.42</v>
+      </c>
       <c r="AC23" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2714,22 +3107,25 @@
       <c r="AG23">
         <v>9.014096260070801</v>
       </c>
-      <c r="AH23" t="s">
-        <v>136</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300661</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>20</v>
@@ -2747,7 +3143,7 @@
         <v>916093.03</v>
       </c>
       <c r="J24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2788,8 +3184,23 @@
       <c r="W24">
         <v>1.23</v>
       </c>
+      <c r="X24">
+        <v>-4.74</v>
+      </c>
+      <c r="Y24">
+        <v>84.8</v>
+      </c>
+      <c r="Z24">
+        <v>-3</v>
+      </c>
       <c r="AC24" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>1</v>
@@ -2797,22 +3208,25 @@
       <c r="AG24">
         <v>5.404719829559326</v>
       </c>
-      <c r="AH24" t="s">
-        <v>135</v>
+      <c r="AH24">
+        <v>1</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300680</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>8.41</v>
@@ -2830,7 +3244,7 @@
         <v>168911.99</v>
       </c>
       <c r="J25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -2871,8 +3285,23 @@
       <c r="W25">
         <v>-0.02</v>
       </c>
+      <c r="X25">
+        <v>3.2</v>
+      </c>
+      <c r="Y25">
+        <v>62.88</v>
+      </c>
+      <c r="Z25">
+        <v>4.64</v>
+      </c>
       <c r="AC25" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2880,22 +3309,25 @@
       <c r="AG25">
         <v>6.518899917602539</v>
       </c>
-      <c r="AH25" t="s">
-        <v>136</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300701</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>9.77</v>
@@ -2913,7 +3345,7 @@
         <v>63702.5</v>
       </c>
       <c r="J26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2954,8 +3386,23 @@
       <c r="W26">
         <v>1.12</v>
       </c>
+      <c r="X26">
+        <v>-2.32</v>
+      </c>
+      <c r="Y26">
+        <v>14.98</v>
+      </c>
+      <c r="Z26">
+        <v>-0.53</v>
+      </c>
       <c r="AC26" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -2963,22 +3410,25 @@
       <c r="AG26">
         <v>3.85998272895813</v>
       </c>
-      <c r="AH26" t="s">
-        <v>136</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300757</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>-2.83</v>
@@ -2996,7 +3446,7 @@
         <v>252772.33</v>
       </c>
       <c r="J27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K27">
         <v>16</v>
@@ -3037,8 +3487,23 @@
       <c r="W27">
         <v>-0.32</v>
       </c>
+      <c r="X27">
+        <v>5.58</v>
+      </c>
+      <c r="Y27">
+        <v>299.95</v>
+      </c>
+      <c r="Z27">
+        <v>7.03</v>
+      </c>
       <c r="AC27" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3046,22 +3511,25 @@
       <c r="AG27">
         <v>-2.33330512046814</v>
       </c>
-      <c r="AH27" t="s">
-        <v>136</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300790</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>-2.91</v>
@@ -3079,7 +3547,7 @@
         <v>94803.13</v>
       </c>
       <c r="J28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K28">
         <v>10</v>
@@ -3120,8 +3588,23 @@
       <c r="W28">
         <v>-0.91</v>
       </c>
+      <c r="X28">
+        <v>-0.88</v>
+      </c>
+      <c r="Y28">
+        <v>34.13</v>
+      </c>
+      <c r="Z28">
+        <v>0.15</v>
+      </c>
       <c r="AC28" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3129,22 +3612,25 @@
       <c r="AG28">
         <v>4.17505407333374</v>
       </c>
-      <c r="AH28" t="s">
-        <v>136</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300805</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>10.75</v>
@@ -3162,7 +3648,7 @@
         <v>61630.19</v>
       </c>
       <c r="J29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K29">
         <v>4</v>
@@ -3203,8 +3689,23 @@
       <c r="W29">
         <v>1.38</v>
       </c>
+      <c r="X29">
+        <v>-4.28</v>
+      </c>
+      <c r="Y29">
+        <v>13.5</v>
+      </c>
+      <c r="Z29">
+        <v>-2.17</v>
+      </c>
       <c r="AC29" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3212,22 +3713,25 @@
       <c r="AG29">
         <v>4.51376485824585</v>
       </c>
-      <c r="AH29" t="s">
-        <v>136</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300806</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>0.54</v>
@@ -3245,7 +3749,7 @@
         <v>47609.41</v>
       </c>
       <c r="J30" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -3286,8 +3790,23 @@
       <c r="W30">
         <v>0.05</v>
       </c>
+      <c r="X30">
+        <v>-0.11</v>
+      </c>
+      <c r="Y30">
+        <v>26.65</v>
+      </c>
+      <c r="Z30">
+        <v>1.6</v>
+      </c>
       <c r="AC30" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3295,22 +3814,25 @@
       <c r="AG30">
         <v>3.708950042724609</v>
       </c>
-      <c r="AH30" t="s">
-        <v>136</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300852</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>-2.41</v>
@@ -3328,7 +3850,7 @@
         <v>72199.72</v>
       </c>
       <c r="J31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -3369,8 +3891,23 @@
       <c r="W31">
         <v>-0.24</v>
       </c>
+      <c r="X31">
+        <v>-1.32</v>
+      </c>
+      <c r="Y31">
+        <v>46.57</v>
+      </c>
+      <c r="Z31">
+        <v>1</v>
+      </c>
       <c r="AC31" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3378,22 +3915,25 @@
       <c r="AG31">
         <v>1.013852119445801</v>
       </c>
-      <c r="AH31" t="s">
-        <v>136</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300857</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>0.37</v>
@@ -3411,7 +3951,7 @@
         <v>312678.96</v>
       </c>
       <c r="J32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K32">
         <v>17</v>
@@ -3452,8 +3992,23 @@
       <c r="W32">
         <v>-0.03</v>
       </c>
+      <c r="X32">
+        <v>13.1</v>
+      </c>
+      <c r="Y32">
+        <v>161.1</v>
+      </c>
+      <c r="Z32">
+        <v>16.06</v>
+      </c>
       <c r="AC32" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>1</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3461,22 +4016,25 @@
       <c r="AG32">
         <v>5.56313419342041</v>
       </c>
-      <c r="AH32" t="s">
-        <v>136</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300859</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>5.34</v>
@@ -3494,7 +4052,7 @@
         <v>101909.31</v>
       </c>
       <c r="J33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K33">
         <v>5</v>
@@ -3535,8 +4093,23 @@
       <c r="W33">
         <v>-0.48</v>
       </c>
+      <c r="X33">
+        <v>1.1</v>
+      </c>
+      <c r="Y33">
+        <v>53.38</v>
+      </c>
+      <c r="Z33">
+        <v>4.54</v>
+      </c>
       <c r="AC33" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3544,22 +4117,25 @@
       <c r="AG33">
         <v>6.634531021118164</v>
       </c>
-      <c r="AH33" t="s">
-        <v>136</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300953</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>4.73</v>
@@ -3577,7 +4153,7 @@
         <v>150795.42</v>
       </c>
       <c r="J34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K34">
         <v>14</v>
@@ -3618,8 +4194,23 @@
       <c r="W34">
         <v>0.25</v>
       </c>
+      <c r="X34">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="Y34">
+        <v>176.88</v>
+      </c>
+      <c r="Z34">
+        <v>10.6</v>
+      </c>
       <c r="AC34" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>1</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3627,22 +4218,25 @@
       <c r="AG34">
         <v>6.426167011260986</v>
       </c>
-      <c r="AH34" t="s">
-        <v>136</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>300990</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>4.95</v>
@@ -3660,7 +4254,7 @@
         <v>68554.14999999999</v>
       </c>
       <c r="J35" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -3701,8 +4295,23 @@
       <c r="W35">
         <v>-0.16</v>
       </c>
+      <c r="X35">
+        <v>0.24</v>
+      </c>
+      <c r="Y35">
+        <v>87.88</v>
+      </c>
+      <c r="Z35">
+        <v>3.88</v>
+      </c>
       <c r="AC35" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3710,22 +4319,25 @@
       <c r="AG35">
         <v>6.087634563446045</v>
       </c>
-      <c r="AH35" t="s">
-        <v>136</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>301076</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>5.29</v>
@@ -3743,7 +4355,7 @@
         <v>158224.9</v>
       </c>
       <c r="J36" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K36">
         <v>6</v>
@@ -3784,8 +4396,23 @@
       <c r="W36">
         <v>1.06</v>
       </c>
+      <c r="X36">
+        <v>-1.25</v>
+      </c>
+      <c r="Y36">
+        <v>64.67</v>
+      </c>
+      <c r="Z36">
+        <v>3.84</v>
+      </c>
       <c r="AC36" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>1</v>
@@ -3793,22 +4420,25 @@
       <c r="AG36">
         <v>6.53968620300293</v>
       </c>
-      <c r="AH36" t="s">
-        <v>135</v>
+      <c r="AH36">
+        <v>1</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>301123</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>-2.45</v>
@@ -3826,7 +4456,7 @@
         <v>51759.87</v>
       </c>
       <c r="J37" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -3867,8 +4497,23 @@
       <c r="W37">
         <v>-0.35</v>
       </c>
+      <c r="X37">
+        <v>2.04</v>
+      </c>
+      <c r="Y37">
+        <v>49.77</v>
+      </c>
+      <c r="Z37">
+        <v>6.64</v>
+      </c>
       <c r="AC37" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3876,22 +4521,25 @@
       <c r="AG37">
         <v>1.179137110710144</v>
       </c>
-      <c r="AH37" t="s">
-        <v>136</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>301150</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>20</v>
@@ -3909,7 +4557,7 @@
         <v>152253.81</v>
       </c>
       <c r="J38" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K38">
         <v>10</v>
@@ -3950,8 +4598,23 @@
       <c r="W38">
         <v>3.06</v>
       </c>
+      <c r="X38">
+        <v>-5.85</v>
+      </c>
+      <c r="Y38">
+        <v>44.97</v>
+      </c>
+      <c r="Z38">
+        <v>2.39</v>
+      </c>
       <c r="AC38" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>1</v>
@@ -3959,22 +4622,25 @@
       <c r="AG38">
         <v>13.97038459777832</v>
       </c>
-      <c r="AH38" t="s">
-        <v>135</v>
+      <c r="AH38">
+        <v>1</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>301165</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>1.14</v>
@@ -3992,7 +4658,7 @@
         <v>122598.53</v>
       </c>
       <c r="J39" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K39">
         <v>3</v>
@@ -4033,8 +4699,23 @@
       <c r="W39">
         <v>-0.53</v>
       </c>
+      <c r="X39">
+        <v>-2.17</v>
+      </c>
+      <c r="Y39">
+        <v>93.2</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
       <c r="AC39" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>1</v>
@@ -4042,22 +4723,25 @@
       <c r="AG39">
         <v>6.521227836608887</v>
       </c>
-      <c r="AH39" t="s">
-        <v>136</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>301307</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>2.78</v>
@@ -4075,7 +4759,7 @@
         <v>66960.97</v>
       </c>
       <c r="J40" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K40">
         <v>4</v>
@@ -4116,8 +4800,23 @@
       <c r="W40">
         <v>0.7</v>
       </c>
+      <c r="X40">
+        <v>20</v>
+      </c>
+      <c r="Y40">
+        <v>40.38</v>
+      </c>
+      <c r="Z40">
+        <v>20</v>
+      </c>
       <c r="AC40" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>1</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4125,22 +4824,25 @@
       <c r="AG40">
         <v>1.051352620124817</v>
       </c>
-      <c r="AH40" t="s">
-        <v>136</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>301377</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>-2.38</v>
@@ -4158,7 +4860,7 @@
         <v>78057.19</v>
       </c>
       <c r="J41" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K41">
         <v>4</v>
@@ -4199,8 +4901,23 @@
       <c r="W41">
         <v>-0.75</v>
       </c>
+      <c r="X41">
+        <v>-1.09</v>
+      </c>
+      <c r="Y41">
+        <v>91</v>
+      </c>
+      <c r="Z41">
+        <v>4.08</v>
+      </c>
       <c r="AC41" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4208,22 +4925,25 @@
       <c r="AG41">
         <v>5.390449047088623</v>
       </c>
-      <c r="AH41" t="s">
-        <v>136</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>301398</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>1.84</v>
@@ -4241,7 +4961,7 @@
         <v>46618.6</v>
       </c>
       <c r="J42" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K42">
         <v>3</v>
@@ -4282,8 +5002,23 @@
       <c r="W42">
         <v>0.32</v>
       </c>
+      <c r="X42">
+        <v>3.97</v>
+      </c>
+      <c r="Y42">
+        <v>56.98</v>
+      </c>
+      <c r="Z42">
+        <v>7.13</v>
+      </c>
       <c r="AC42" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>1</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4291,22 +5026,25 @@
       <c r="AG42">
         <v>-1.285109043121338</v>
       </c>
-      <c r="AH42" t="s">
-        <v>136</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>301413</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>5.44</v>
@@ -4324,7 +5062,7 @@
         <v>93353.75</v>
       </c>
       <c r="J43" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K43">
         <v>17</v>
@@ -4365,8 +5103,23 @@
       <c r="W43">
         <v>0.14</v>
       </c>
+      <c r="X43">
+        <v>20</v>
+      </c>
+      <c r="Y43">
+        <v>180.11</v>
+      </c>
+      <c r="Z43">
+        <v>20</v>
+      </c>
       <c r="AC43" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>1</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4374,22 +5127,25 @@
       <c r="AG43">
         <v>1.558058023452759</v>
       </c>
-      <c r="AH43" t="s">
-        <v>136</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>301488</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>11.96</v>
@@ -4407,7 +5163,7 @@
         <v>192780.13</v>
       </c>
       <c r="J44" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K44">
         <v>14</v>
@@ -4448,8 +5204,23 @@
       <c r="W44">
         <v>1.62</v>
       </c>
+      <c r="X44">
+        <v>7.15</v>
+      </c>
+      <c r="Y44">
+        <v>203.15</v>
+      </c>
+      <c r="Z44">
+        <v>14.03</v>
+      </c>
       <c r="AC44" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>1</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4457,22 +5228,25 @@
       <c r="AG44">
         <v>2.235660791397095</v>
       </c>
-      <c r="AH44" t="s">
-        <v>136</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>301617</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>-2.67</v>
@@ -4490,7 +5264,7 @@
         <v>42205.02</v>
       </c>
       <c r="J45" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K45">
         <v>17</v>
@@ -4531,8 +5305,23 @@
       <c r="W45">
         <v>-0.9399999999999999</v>
       </c>
+      <c r="X45">
+        <v>-0.9399999999999999</v>
+      </c>
+      <c r="Y45">
+        <v>79.95</v>
+      </c>
+      <c r="Z45">
+        <v>-0.2</v>
+      </c>
       <c r="AC45" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4540,22 +5329,25 @@
       <c r="AG45">
         <v>2.069746255874634</v>
       </c>
-      <c r="AH45" t="s">
-        <v>136</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>688005</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>-0.98</v>
@@ -4573,7 +5365,7 @@
         <v>172644.34</v>
       </c>
       <c r="J46" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K46">
         <v>5</v>
@@ -4614,8 +5406,23 @@
       <c r="W46">
         <v>-0.12</v>
       </c>
+      <c r="X46">
+        <v>-0.65</v>
+      </c>
+      <c r="Y46">
+        <v>29.9</v>
+      </c>
+      <c r="Z46">
+        <v>2.33</v>
+      </c>
       <c r="AC46" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4623,22 +5430,25 @@
       <c r="AG46">
         <v>-0.7823917865753174</v>
       </c>
-      <c r="AH46" t="s">
-        <v>136</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>688028</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>4</v>
@@ -4656,7 +5466,7 @@
         <v>72400.16</v>
       </c>
       <c r="J47" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K47">
         <v>6</v>
@@ -4697,8 +5507,23 @@
       <c r="W47">
         <v>-0.03</v>
       </c>
+      <c r="X47">
+        <v>-4.09</v>
+      </c>
+      <c r="Y47">
+        <v>47.95</v>
+      </c>
+      <c r="Z47">
+        <v>6.58</v>
+      </c>
       <c r="AC47" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4706,22 +5531,25 @@
       <c r="AG47">
         <v>2.914887189865112</v>
       </c>
-      <c r="AH47" t="s">
-        <v>136</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>688041</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>5.22</v>
@@ -4739,7 +5567,7 @@
         <v>1542176.67</v>
       </c>
       <c r="J48" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -4780,8 +5608,23 @@
       <c r="W48">
         <v>0.03</v>
       </c>
+      <c r="X48">
+        <v>6.26</v>
+      </c>
+      <c r="Y48">
+        <v>255.96</v>
+      </c>
+      <c r="Z48">
+        <v>10.57</v>
+      </c>
       <c r="AC48" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>1</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4789,22 +5632,25 @@
       <c r="AG48">
         <v>7.7740159034729</v>
       </c>
-      <c r="AH48" t="s">
-        <v>136</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>688110</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>6.67</v>
@@ -4822,7 +5668,7 @@
         <v>313018.01</v>
       </c>
       <c r="J49" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K49">
         <v>2</v>
@@ -4863,8 +5709,23 @@
       <c r="W49">
         <v>0.06</v>
       </c>
+      <c r="X49">
+        <v>0.63</v>
+      </c>
+      <c r="Y49">
+        <v>125.9</v>
+      </c>
+      <c r="Z49">
+        <v>7.07</v>
+      </c>
       <c r="AC49" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>1</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -4872,22 +5733,25 @@
       <c r="AG49">
         <v>6.287554740905762</v>
       </c>
-      <c r="AH49" t="s">
-        <v>136</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>688141</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>-2.8</v>
@@ -4905,7 +5769,7 @@
         <v>142575.94</v>
       </c>
       <c r="J50" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K50">
         <v>9</v>
@@ -4946,8 +5810,23 @@
       <c r="W50">
         <v>-0.23</v>
       </c>
+      <c r="X50">
+        <v>-0.44</v>
+      </c>
+      <c r="Y50">
+        <v>54.48</v>
+      </c>
+      <c r="Z50">
+        <v>4.77</v>
+      </c>
       <c r="AC50" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -4955,22 +5834,25 @@
       <c r="AG50">
         <v>49.28998947143555</v>
       </c>
-      <c r="AH50" t="s">
-        <v>136</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>688147</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>8.279999999999999</v>
@@ -4988,7 +5870,7 @@
         <v>93427.8</v>
       </c>
       <c r="J51" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K51">
         <v>21</v>
@@ -5029,8 +5911,23 @@
       <c r="W51">
         <v>1.67</v>
       </c>
+      <c r="X51">
+        <v>-1.25</v>
+      </c>
+      <c r="Y51">
+        <v>48.3</v>
+      </c>
+      <c r="Z51">
+        <v>0.65</v>
+      </c>
       <c r="AC51" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5038,22 +5935,25 @@
       <c r="AG51">
         <v>29.6663761138916</v>
       </c>
-      <c r="AH51" t="s">
-        <v>136</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>688167</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>1.58</v>
@@ -5071,7 +5971,7 @@
         <v>150956.16</v>
       </c>
       <c r="J52" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K52">
         <v>7</v>
@@ -5112,8 +6012,23 @@
       <c r="W52">
         <v>0.03</v>
       </c>
+      <c r="X52">
+        <v>2.8</v>
+      </c>
+      <c r="Y52">
+        <v>166.1</v>
+      </c>
+      <c r="Z52">
+        <v>3.49</v>
+      </c>
       <c r="AC52" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5121,22 +6036,25 @@
       <c r="AG52">
         <v>1.008082270622253</v>
       </c>
-      <c r="AH52" t="s">
-        <v>136</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>688195</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>6.81</v>
@@ -5154,7 +6072,7 @@
         <v>168855.08</v>
       </c>
       <c r="J53" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K53">
         <v>21</v>
@@ -5195,8 +6113,23 @@
       <c r="W53">
         <v>0.77</v>
       </c>
+      <c r="X53">
+        <v>0.85</v>
+      </c>
+      <c r="Y53">
+        <v>116.13</v>
+      </c>
+      <c r="Z53">
+        <v>5.57</v>
+      </c>
       <c r="AC53" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5204,22 +6137,25 @@
       <c r="AG53">
         <v>5.998735904693604</v>
       </c>
-      <c r="AH53" t="s">
-        <v>136</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>688202</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>3.12</v>
@@ -5237,7 +6173,7 @@
         <v>91165.95</v>
       </c>
       <c r="J54" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K54">
         <v>3</v>
@@ -5278,8 +6214,23 @@
       <c r="W54">
         <v>0.2</v>
       </c>
+      <c r="X54">
+        <v>-0.92</v>
+      </c>
+      <c r="Y54">
+        <v>81</v>
+      </c>
+      <c r="Z54">
+        <v>-0.12</v>
+      </c>
       <c r="AC54" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5287,22 +6238,25 @@
       <c r="AG54">
         <v>4.432827949523926</v>
       </c>
-      <c r="AH54" t="s">
-        <v>136</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>688228</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>13.71</v>
@@ -5320,7 +6274,7 @@
         <v>134461.75</v>
       </c>
       <c r="J55" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K55">
         <v>4</v>
@@ -5361,8 +6315,23 @@
       <c r="W55">
         <v>-1.55</v>
       </c>
+      <c r="X55">
+        <v>-2.52</v>
+      </c>
+      <c r="Y55">
+        <v>190</v>
+      </c>
+      <c r="Z55">
+        <v>3.83</v>
+      </c>
       <c r="AC55" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5370,22 +6339,25 @@
       <c r="AG55">
         <v>12.10168266296387</v>
       </c>
-      <c r="AH55" t="s">
-        <v>136</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>688256</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>-3.23</v>
@@ -5403,7 +6375,7 @@
         <v>1656407.76</v>
       </c>
       <c r="J56" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K56">
         <v>3</v>
@@ -5444,8 +6416,23 @@
       <c r="W56">
         <v>0.01</v>
       </c>
+      <c r="X56">
+        <v>0.01</v>
+      </c>
+      <c r="Y56">
+        <v>1528</v>
+      </c>
+      <c r="Z56">
+        <v>6.11</v>
+      </c>
       <c r="AC56" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
       </c>
       <c r="AF56">
         <v>1</v>
@@ -5453,22 +6440,25 @@
       <c r="AG56">
         <v>5.41454029083252</v>
       </c>
-      <c r="AH56" t="s">
-        <v>135</v>
+      <c r="AH56">
+        <v>1</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>688325</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>7.12</v>
@@ -5486,7 +6476,7 @@
         <v>53256.67</v>
       </c>
       <c r="J57" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K57">
         <v>2</v>
@@ -5527,8 +6517,23 @@
       <c r="W57">
         <v>1</v>
       </c>
+      <c r="X57">
+        <v>-3.36</v>
+      </c>
+      <c r="Y57">
+        <v>79.81999999999999</v>
+      </c>
+      <c r="Z57">
+        <v>-0.23</v>
+      </c>
       <c r="AC57" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5536,22 +6541,25 @@
       <c r="AG57">
         <v>6.349944591522217</v>
       </c>
-      <c r="AH57" t="s">
-        <v>136</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>688331</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>-1.79</v>
@@ -5569,7 +6577,7 @@
         <v>96903.55</v>
       </c>
       <c r="J58" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K58">
         <v>5</v>
@@ -5610,8 +6618,23 @@
       <c r="W58">
         <v>-0.03</v>
       </c>
+      <c r="X58">
+        <v>-0.49</v>
+      </c>
+      <c r="Y58">
+        <v>108.5</v>
+      </c>
+      <c r="Z58">
+        <v>2.86</v>
+      </c>
       <c r="AC58" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5619,22 +6642,25 @@
       <c r="AG58">
         <v>5.066952705383301</v>
       </c>
-      <c r="AH58" t="s">
-        <v>136</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>688347</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>2.75</v>
@@ -5652,7 +6678,7 @@
         <v>222250.27</v>
       </c>
       <c r="J59" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K59">
         <v>3</v>
@@ -5693,8 +6719,23 @@
       <c r="W59">
         <v>-0.44</v>
       </c>
+      <c r="X59">
+        <v>0.05</v>
+      </c>
+      <c r="Y59">
+        <v>77.98999999999999</v>
+      </c>
+      <c r="Z59">
+        <v>1.47</v>
+      </c>
       <c r="AC59" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5702,22 +6743,25 @@
       <c r="AG59">
         <v>6.555889129638672</v>
       </c>
-      <c r="AH59" t="s">
-        <v>136</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>688411</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>8.65</v>
@@ -5735,7 +6779,7 @@
         <v>149572.63</v>
       </c>
       <c r="J60" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K60">
         <v>10</v>
@@ -5776,8 +6820,23 @@
       <c r="W60">
         <v>0.73</v>
       </c>
+      <c r="X60">
+        <v>5.2</v>
+      </c>
+      <c r="Y60">
+        <v>214</v>
+      </c>
+      <c r="Z60">
+        <v>7.92</v>
+      </c>
       <c r="AC60" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>1</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -5785,22 +6844,25 @@
       <c r="AG60">
         <v>0.4445700943470001</v>
       </c>
-      <c r="AH60" t="s">
-        <v>136</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>688521</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>-1.25</v>
@@ -5818,7 +6880,7 @@
         <v>1010903.96</v>
       </c>
       <c r="J61" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K61">
         <v>9</v>
@@ -5859,8 +6921,23 @@
       <c r="W61">
         <v>-1.04</v>
       </c>
+      <c r="X61">
+        <v>-0.4</v>
+      </c>
+      <c r="Y61">
+        <v>188.98</v>
+      </c>
+      <c r="Z61">
+        <v>4.24</v>
+      </c>
       <c r="AC61" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -5868,22 +6945,25 @@
       <c r="AG61">
         <v>10.07949352264404</v>
       </c>
-      <c r="AH61" t="s">
-        <v>136</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>688629</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>-1.47</v>
@@ -5901,7 +6981,7 @@
         <v>139932.31</v>
       </c>
       <c r="J62" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K62">
         <v>3</v>
@@ -5942,8 +7022,23 @@
       <c r="W62">
         <v>0.24</v>
       </c>
+      <c r="X62">
+        <v>2.21</v>
+      </c>
+      <c r="Y62">
+        <v>88.95999999999999</v>
+      </c>
+      <c r="Z62">
+        <v>2.28</v>
+      </c>
       <c r="AC62" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
       </c>
       <c r="AF62">
         <v>1</v>
@@ -5951,8 +7046,11 @@
       <c r="AG62">
         <v>9.841103553771973</v>
       </c>
-      <c r="AH62" t="s">
-        <v>135</v>
+      <c r="AH62">
+        <v>1</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
